--- a/sict/contest/jangjunyoung/네이처리퍼블릭 상품유형별 정리.xlsx
+++ b/sict/contest/jangjunyoung/네이처리퍼블릭 상품유형별 정리.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1085">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="1097">
   <x:si>
     <x:t>상품상세유형</x:t>
   </x:si>
@@ -2839,12 +2839,54 @@
     <x:t>스킨/로션</x:t>
   </x:si>
   <x:si>
+    <x:t>아프리카 버드 옴므 올인원 프레시 밸런서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아프리카 버드 옴므 올인원 모이스처라이저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12642</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아프리카 버드 옴므 오일컷 수분 크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포레스트 릴리프 포 맨 스킨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[폼클렌징 GIFT]버치 모이스트 포 맨 기획세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[폼클렌징 GIFT]포레스트 릴리프 포 맨 기획세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크림/에센스/아이</x:t>
+  </x:si>
+  <x:si>
     <x:t>포레스트 릴리프 포 맨 올인원 에센스</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.naturerepublic.com/goods/goods/view?no=13527</x:t>
   </x:si>
   <x:si>
+    <x:t>클렌저/쉐이빙</x:t>
+  </x:si>
+  <x:si>
     <x:t>아프리카 버드 옴므 쉐이빙 폼클렌징</x:t>
   </x:si>
   <x:si>
@@ -2855,12 +2897,6 @@
   </x:si>
   <x:si>
     <x:t>https://www.naturerepublic.com/goods/goods/view?no=13524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크림/에센스/아이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클렌저/쉐이빙</x:t>
   </x:si>
   <x:si>
     <x:t>선크림/젤</x:t>
@@ -5896,19 +5932,19 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>965</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>966</x:v>
+        <x:v>978</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>967</x:v>
+        <x:v>979</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>968</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>969</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>308</x:v>
@@ -5916,13 +5952,13 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>965</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>970</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>971</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>635</x:v>
@@ -5936,16 +5972,16 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>965</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>972</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>973</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>974</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>370</x:v>
@@ -5956,13 +5992,13 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>965</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>975</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>976</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>465</x:v>
@@ -5976,16 +6012,16 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>978</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>979</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>391</x:v>
@@ -5996,19 +6032,19 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>993</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>994</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>980</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
         <x:v>981</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>982</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>968</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>969</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>308</x:v>
@@ -6016,19 +6052,19 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>984</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>968</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>969</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>308</x:v>
@@ -6036,16 +6072,16 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>985</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>986</x:v>
+        <x:v>998</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>987</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>100</x:v>
@@ -6056,16 +6092,16 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>988</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>989</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>987</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>100</x:v>
@@ -6076,16 +6112,16 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>990</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>991</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>367</x:v>
@@ -6096,13 +6132,13 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>993</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>994</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>100</x:v>
@@ -6116,16 +6152,16 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>995</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>996</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>974</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>370</x:v>
@@ -6136,16 +6172,16 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>997</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>998</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>974</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>370</x:v>
@@ -6156,16 +6192,16 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>999</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>1000</x:v>
+        <x:v>1012</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>974</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>370</x:v>
@@ -6176,16 +6212,16 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>1001</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>1002</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>974</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>370</x:v>
@@ -6196,16 +6232,16 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>1003</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>1004</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1005</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>504</x:v>
@@ -6216,13 +6252,13 @@
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>1006</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>1007</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>370</x:v>
@@ -6236,13 +6272,13 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>1008</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>1009</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>370</x:v>
@@ -6256,16 +6292,16 @@
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>1010</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>1011</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1012</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>625</x:v>
@@ -6276,13 +6312,13 @@
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>1013</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>1014</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
         <x:v>545</x:v>
@@ -6296,13 +6332,13 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>1015</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>1016</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
         <x:v>625</x:v>
@@ -6316,16 +6352,16 @@
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1017</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>1018</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>1019</x:v>
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>26</x:v>
@@ -6336,13 +6372,13 @@
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>1021</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>1022</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>660</x:v>
@@ -6356,13 +6392,13 @@
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>1023</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>1024</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>660</x:v>
@@ -6376,16 +6412,16 @@
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>1025</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>987</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>100</x:v>
@@ -6396,13 +6432,13 @@
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>1027</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>1028</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>636</x:v>
@@ -6416,13 +6452,13 @@
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>1029</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>1030</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>100</x:v>
@@ -6436,13 +6472,13 @@
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>1031</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>1032</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>367</x:v>
@@ -6456,13 +6492,13 @@
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>1033</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>1034</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>367</x:v>
@@ -6476,13 +6512,13 @@
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>1036</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>30</x:v>
@@ -6496,16 +6532,16 @@
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>1038</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>1039</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>1040</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>635</x:v>
@@ -6516,16 +6552,16 @@
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>1041</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>1042</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>1040</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>635</x:v>
@@ -6536,16 +6572,16 @@
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>1044</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>987</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>100</x:v>
@@ -6556,13 +6592,13 @@
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>1045</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>1046</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>636</x:v>
@@ -6576,13 +6612,13 @@
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>1047</x:v>
+        <x:v>1059</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>1048</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>237</x:v>
@@ -6596,13 +6632,13 @@
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>1049</x:v>
+        <x:v>1061</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>1050</x:v>
+        <x:v>1062</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
         <x:v>475</x:v>
@@ -6616,13 +6652,13 @@
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="0" t="s">
-        <x:v>1051</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>1052</x:v>
+        <x:v>1064</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>1053</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>660</x:v>
@@ -6636,13 +6672,13 @@
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="0" t="s">
-        <x:v>1051</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>1054</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>1055</x:v>
+        <x:v>1067</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
         <x:v>660</x:v>
@@ -6656,13 +6692,13 @@
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="0" t="s">
-        <x:v>1051</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>1056</x:v>
+        <x:v>1068</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>1057</x:v>
+        <x:v>1069</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>635</x:v>
@@ -6676,16 +6712,16 @@
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="0" t="s">
-        <x:v>1051</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>1058</x:v>
+        <x:v>1070</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>1059</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>367</x:v>
@@ -6696,13 +6732,13 @@
     </x:row>
     <x:row r="42" spans="1:6">
       <x:c r="A42" s="0" t="s">
-        <x:v>1060</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>1061</x:v>
+        <x:v>1073</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>1062</x:v>
+        <x:v>1074</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>660</x:v>
@@ -6716,13 +6752,13 @@
     </x:row>
     <x:row r="43" spans="1:6">
       <x:c r="A43" s="0" t="s">
-        <x:v>1060</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>1063</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>1064</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
         <x:v>391</x:v>
@@ -6736,36 +6772,36 @@
     </x:row>
     <x:row r="44" spans="1:6">
       <x:c r="A44" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>1066</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>1067</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>1068</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>1069</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>1070</x:v>
+        <x:v>1082</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
       <x:c r="A45" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>1072</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>1040</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>635</x:v>
@@ -6776,16 +6812,16 @@
     </x:row>
     <x:row r="46" spans="1:6">
       <x:c r="A46" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>1073</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1074</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>1040</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>635</x:v>
@@ -6796,13 +6832,13 @@
     </x:row>
     <x:row r="47" spans="1:6">
       <x:c r="A47" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>1075</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>1076</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
         <x:v>635</x:v>
@@ -6816,13 +6852,13 @@
     </x:row>
     <x:row r="48" spans="1:6">
       <x:c r="A48" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>1077</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>1078</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
         <x:v>635</x:v>
@@ -6836,13 +6872,13 @@
     </x:row>
     <x:row r="49" spans="1:6">
       <x:c r="A49" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>1079</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>1080</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>635</x:v>
@@ -6856,16 +6892,16 @@
     </x:row>
     <x:row r="50" spans="1:6">
       <x:c r="A50" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>1081</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>1082</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>987</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>100</x:v>
@@ -6876,13 +6912,13 @@
     </x:row>
     <x:row r="51" spans="1:6">
       <x:c r="A51" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>1083</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>1084</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>636</x:v>
@@ -11765,13 +11801,13 @@
         <x:v>939</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -11785,13 +11821,13 @@
         <x:v>941</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -11805,43 +11841,133 @@
         <x:v>943</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
         <x:v>937</x:v>
       </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>944</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>945</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
         <x:v>937</x:v>
       </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>946</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>947</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>935</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>936</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
         <x:v>937</x:v>
       </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>948</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>949</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>936</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>944</x:v>
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>951</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>952</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>945</x:v>
+        <x:v>953</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>954</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>955</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>945</x:v>
+        <x:v>953</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>956</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>957</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>308</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11886,19 +12012,19 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>946</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>947</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>948</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>949</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>74</x:v>
@@ -11906,19 +12032,19 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>946</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>950</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>951</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>74</x:v>
@@ -11926,13 +12052,13 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>946</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>953</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>954</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>72</x:v>
@@ -11946,13 +12072,13 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>946</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>955</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>956</x:v>
+        <x:v>968</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>72</x:v>
@@ -11966,13 +12092,13 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>946</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>957</x:v>
+        <x:v>969</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>958</x:v>
+        <x:v>970</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>199</x:v>
@@ -11986,19 +12112,19 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>946</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>959</x:v>
+        <x:v>971</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>960</x:v>
+        <x:v>972</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>961</x:v>
+        <x:v>973</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>74</x:v>
@@ -12006,13 +12132,13 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>962</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>963</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>964</x:v>
+        <x:v>976</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>48</x:v>

--- a/sict/contest/jangjunyoung/네이처리퍼블릭 상품유형별 정리.xlsx
+++ b/sict/contest/jangjunyoung/네이처리퍼블릭 상품유형별 정리.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="1100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1091">
   <x:si>
     <x:t>상품상세유형</x:t>
   </x:si>
@@ -1081,81 +1081,54 @@
     <x:t>바디로션/크림/미스트</x:t>
   </x:si>
   <x:si>
-    <x:t>모멘트 퍼퓸 미스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,400원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퍼퓸 드 네이처 바디 로션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[뷰튜버Pick] 허브올로지 화이트진저 릴랙싱 바디 크림(릴렉싱)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순한 베이비 아토 로션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13943</x:t>
+    <x:t>퍼퓸 드 네이처 오드 퍼퓸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,900원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 리얼 스퀴즈 알로에베라 모이스처 핸드 마스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 리얼 스퀴즈 알로에베라 모이스처 풋 마스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[1+1] 리얼 스퀴즈 알로에베라 필링 풋 마스크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,000원</x:t>
   </x:si>
   <x:si>
     <x:t>향수/방향/디퓨저</x:t>
   </x:si>
   <x:si>
-    <x:t>퍼퓸 드 네이처 오드 퍼퓸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,900원</x:t>
+    <x:t>풋 앤 네이처 코코넛 모이스처 풋 크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,000원</x:t>
   </x:si>
   <x:si>
     <x:t>핸드/풋케어</x:t>
   </x:si>
   <x:si>
-    <x:t>[1+1] 리얼 스퀴즈 알로에베라 모이스처 핸드 마스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 리얼 스퀴즈 알로에베라 모이스처 풋 마스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[1+1] 리얼 스퀴즈 알로에베라 필링 풋 마스크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋 앤 네이처 코코넛 모이스처 풋 크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,000원</x:t>
-  </x:si>
-  <x:si>
     <x:t>손이깨끗해 핸드솝</x:t>
   </x:si>
   <x:si>
@@ -1198,72 +1171,72 @@
     <x:t>25%</x:t>
   </x:si>
   <x:si>
+    <x:t>뷰티 툴 바디 면도기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,500원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레시 데오드란트 스틱-플로랄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,160원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레시 데오드란트 스틱 - 코튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배쓰 앤 네이처 캐모마일 페미닌 워시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,320원</x:t>
+  </x:si>
+  <x:si>
     <x:t>데오드란트/제모</x:t>
   </x:si>
   <x:si>
-    <x:t>뷰티 툴 바디 면도기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12688</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,500원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레시 데오드란트 스틱-플로랄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11704</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,160원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레시 데오드란트 스틱 - 코튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=11705</x:t>
+    <x:t>[단품/1+1] 트루 허브 사이프러스 타임 샴푸 (탈모증상완화 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[단품/1+1] 트루 허브 로즈마리 민트 샴푸 (탈모증상완화 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[단품/1+1] 트루 허브 라벤더 패출리 샴푸 (탈모증상완화 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13563</x:t>
   </x:si>
   <x:si>
     <x:t>바디기타</x:t>
   </x:si>
   <x:si>
-    <x:t>배쓰 앤 네이처 캐모마일 페미닌 워시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,320원</x:t>
+    <x:t>[단품/1+1] 트루 허브 만다린 진저 샴푸 (탈모증상완화 기능성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13564</x:t>
   </x:si>
   <x:si>
     <x:t>샴푸/린스</x:t>
   </x:si>
   <x:si>
-    <x:t>[단품/1+1] 트루 허브 사이프러스 타임 샴푸 (탈모증상완화 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[단품/1+1] 트루 허브 로즈마리 민트 샴푸 (탈모증상완화 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13562</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[단품/1+1] 트루 허브 라벤더 패출리 샴푸 (탈모증상완화 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[단품/1+1] 트루 허브 만다린 진저 샴푸 (탈모증상완화 기능성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13564</x:t>
-  </x:si>
-  <x:si>
     <x:t>아르간 에센셜 딥케어 컨디셔너</x:t>
   </x:si>
   <x:si>
@@ -1333,36 +1306,36 @@
     <x:t>18%</x:t>
   </x:si>
   <x:si>
+    <x:t>아르간 에센셜 수분 헤어 미스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 컬링 에센스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10441</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 딥케어 헤어 에센스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르간 에센셜 딥케어 헤어팩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12926</x:t>
+  </x:si>
+  <x:si>
     <x:t>헤어팩/에센스</x:t>
   </x:si>
   <x:si>
-    <x:t>아르간 에센셜 수분 헤어 미스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 컬링 에센스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10441</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 딥케어 헤어 에센스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르간 에센셜 딥케어 헤어팩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12926</x:t>
-  </x:si>
-  <x:si>
     <x:t>헤어 앤 네이처 스테이 볼륨 컬링 에센스</x:t>
   </x:si>
   <x:si>
@@ -1411,79 +1384,79 @@
     <x:t>https://www.naturerepublic.com/goods/goods/view?no=13560</x:t>
   </x:si>
   <x:si>
+    <x:t>헤어 앤 네이처 파워 홀딩 헤어 젤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,830원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아프리카 버드 옴므 울트라 하드 왁스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 퍼펙트 스타일링 헤어 스프레이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,530원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 스피디 홀딩 워터 세팅 스프레이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10642</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,400원</x:t>
+  </x:si>
+  <x:si>
     <x:t>스타일링</x:t>
   </x:si>
   <x:si>
-    <x:t>헤어 앤 네이처 파워 홀딩 헤어 젤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,830원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아프리카 버드 옴므 울트라 하드 왁스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 퍼펙트 스타일링 헤어 스프레이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,530원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 스피디 홀딩 워터 세팅 스프레이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10642</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,400원</x:t>
+    <x:t>헤어 앤 네이처 헤어 컬러 크림 (멋내기용) 10N 골드 브라운</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,800원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용/5분스피디) 6S 자연 갈색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,600원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용) 5N 자연 갈색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용) 3N 흑갈색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10724</x:t>
   </x:si>
   <x:si>
     <x:t>헤어컬러링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 헤어 컬러 크림 (멋내기용) 10N 골드 브라운</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,800원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용/5분스피디) 6S 자연 갈색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,600원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용) 5N 자연 갈색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10568</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어 앤 네이처 헤어 컬러 크림 (새치용) 3N 흑갈색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.naturerepublic.com/goods/goods/view?no=10724</x:t>
   </x:si>
   <x:si>
     <x:t>블러셔/하이라이터</x:t>
@@ -6277,19 +6250,19 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>971</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>981</x:v>
+        <x:v>972</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>982</x:v>
+        <x:v>973</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>984</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>311</x:v>
@@ -6300,19 +6273,19 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>971</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>985</x:v>
+        <x:v>976</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>986</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>311</x:v>
@@ -6323,19 +6296,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>978</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>979</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>980</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>987</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>988</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>989</x:v>
-      </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>311</x:v>
@@ -6346,19 +6319,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>971</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>990</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>991</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>11</x:v>
@@ -6369,19 +6342,19 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>993</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>994</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>995</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>311</x:v>
@@ -6392,19 +6365,19 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>996</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>997</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>984</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>311</x:v>
@@ -6415,19 +6388,19 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>998</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>999</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>984</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>311</x:v>
@@ -6438,16 +6411,16 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
+        <x:v>983</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>991</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>992</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>1001</x:v>
-      </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1002</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>103</x:v>
@@ -6461,16 +6434,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>1003</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>1004</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1002</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>103</x:v>
@@ -6484,19 +6457,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>1005</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>1006</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1007</x:v>
+        <x:v>998</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>311</x:v>
@@ -6507,13 +6480,13 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>1008</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>1009</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>103</x:v>
@@ -6530,19 +6503,19 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>1010</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>1011</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>989</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>311</x:v>
@@ -6553,19 +6526,19 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>1012</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>1013</x:v>
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>989</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>311</x:v>
@@ -6576,19 +6549,19 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>1014</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>1015</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>989</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>311</x:v>
@@ -6599,19 +6572,19 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>1016</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>1017</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>989</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>311</x:v>
@@ -6622,19 +6595,19 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>1018</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>1019</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>311</x:v>
@@ -6645,19 +6618,19 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>1021</x:v>
+        <x:v>1012</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>1022</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>311</x:v>
@@ -6668,19 +6641,19 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>1023</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>1024</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
         <x:v>311</x:v>
@@ -6691,19 +6664,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>1025</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1027</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>311</x:v>
@@ -6714,19 +6687,19 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>1028</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>1029</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>311</x:v>
@@ -6737,19 +6710,19 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>1030</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>1031</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>11</x:v>
@@ -6760,16 +6733,16 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1032</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>1033</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>1034</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>29</x:v>
@@ -6783,19 +6756,19 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>1036</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>11</x:v>
@@ -6806,19 +6779,19 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>1038</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>1039</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
         <x:v>11</x:v>
@@ -6829,16 +6802,16 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>1040</x:v>
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1041</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>1002</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>103</x:v>
@@ -6852,19 +6825,19 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>1042</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
         <x:v>11</x:v>
@@ -6875,13 +6848,13 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
+        <x:v>1026</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
         <x:v>1035</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>1044</x:v>
-      </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>1045</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>103</x:v>
@@ -6898,19 +6871,19 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>1046</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>1047</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>11</x:v>
@@ -6921,19 +6894,19 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>1048</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>1049</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
         <x:v>11</x:v>
@@ -6944,13 +6917,13 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>1050</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>1051</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>33</x:v>
@@ -6967,19 +6940,19 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>1052</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>1053</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>1054</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>1055</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
         <x:v>311</x:v>
@@ -6990,19 +6963,19 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>1052</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>1056</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>1057</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>1055</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
         <x:v>311</x:v>
@@ -7013,16 +6986,16 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>1052</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>1058</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>1059</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>1002</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>103</x:v>
@@ -7036,19 +7009,19 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
+        <x:v>1043</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>1051</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
         <x:v>1052</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>1060</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>1061</x:v>
-      </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
         <x:v>11</x:v>
@@ -7059,13 +7032,13 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
-        <x:v>1052</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>1062</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>1063</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>240</x:v>
@@ -7082,19 +7055,19 @@
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
-        <x:v>1052</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>1064</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
         <x:v>311</x:v>
@@ -7105,19 +7078,19 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="0" t="s">
-        <x:v>1066</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>1067</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>1068</x:v>
+        <x:v>1059</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
         <x:v>11</x:v>
@@ -7128,19 +7101,19 @@
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="0" t="s">
-        <x:v>1066</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>1069</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>1070</x:v>
+        <x:v>1061</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>11</x:v>
@@ -7151,19 +7124,19 @@
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="0" t="s">
-        <x:v>1066</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1062</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>1072</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>11</x:v>
@@ -7174,19 +7147,19 @@
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="0" t="s">
-        <x:v>1066</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>1073</x:v>
+        <x:v>1064</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>1074</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>1007</x:v>
+        <x:v>998</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
         <x:v>311</x:v>
@@ -7197,19 +7170,19 @@
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="0" t="s">
-        <x:v>1075</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>1076</x:v>
+        <x:v>1067</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>1077</x:v>
+        <x:v>1068</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
         <x:v>11</x:v>
@@ -7220,19 +7193,19 @@
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="0" t="s">
-        <x:v>1075</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>1078</x:v>
+        <x:v>1069</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>1079</x:v>
+        <x:v>1070</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
         <x:v>11</x:v>
@@ -7243,22 +7216,22 @@
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="0" t="s">
-        <x:v>1080</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>1081</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>1082</x:v>
+        <x:v>1073</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>1083</x:v>
+        <x:v>1074</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>1084</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>1085</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>21</x:v>
@@ -7266,19 +7239,19 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="0" t="s">
-        <x:v>1080</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>1086</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>1087</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>1055</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
         <x:v>311</x:v>
@@ -7289,19 +7262,19 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="0" t="s">
+        <x:v>1071</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>1079</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
         <x:v>1080</x:v>
       </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>1088</x:v>
-      </x:c>
-      <x:c r="C46" s="0" t="s">
-        <x:v>1089</x:v>
-      </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>1055</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
         <x:v>311</x:v>
@@ -7312,19 +7285,19 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="0" t="s">
-        <x:v>1080</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>1090</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>1091</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
         <x:v>311</x:v>
@@ -7335,19 +7308,19 @@
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="0" t="s">
-        <x:v>1080</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>1092</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>1093</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
         <x:v>311</x:v>
@@ -7358,19 +7331,19 @@
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="0" t="s">
-        <x:v>1080</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>1094</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>1095</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
         <x:v>311</x:v>
@@ -7381,16 +7354,16 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="0" t="s">
-        <x:v>1080</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>1096</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>1097</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>1002</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>103</x:v>
@@ -7404,19 +7377,19 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="0" t="s">
-        <x:v>1080</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>1098</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>1099</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
         <x:v>11</x:v>
@@ -7548,13 +7521,13 @@
         <x:v>353</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>12</x:v>
@@ -7571,13 +7544,13 @@
         <x:v>356</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>12</x:v>
@@ -7594,13 +7567,13 @@
         <x:v>358</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>12</x:v>
@@ -7611,19 +7584,19 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>12</x:v>
@@ -7631,19 +7604,19 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>52</x:v>
@@ -7654,19 +7627,19 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>11</x:v>
@@ -7677,19 +7650,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>11</x:v>
@@ -7700,22 +7673,22 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>12</x:v>
@@ -7723,22 +7696,22 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>12</x:v>
@@ -7746,7 +7719,7 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>377</x:v>
@@ -7755,10 +7728,10 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>11</x:v>
@@ -7769,22 +7742,22 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>380</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
         <x:v>381</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
         <x:v>12</x:v>
@@ -7792,7 +7765,7 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>382</x:v>
@@ -7801,13 +7774,13 @@
         <x:v>383</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
         <x:v>21</x:v>
@@ -7815,22 +7788,22 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>12</x:v>
@@ -7838,22 +7811,22 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
         <x:v>387</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -7861,22 +7834,22 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>12</x:v>
@@ -7884,22 +7857,22 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
         <x:v>12</x:v>
@@ -7907,22 +7880,22 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
         <x:v>21</x:v>
@@ -7930,7 +7903,7 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>398</x:v>
@@ -7939,13 +7912,13 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>21</x:v>
@@ -7962,13 +7935,13 @@
         <x:v>402</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>21</x:v>
@@ -7976,22 +7949,22 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
         <x:v>404</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>405</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="D24" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
         <x:v>406</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
         <x:v>12</x:v>
@@ -7999,7 +7972,7 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>407</x:v>
@@ -8008,13 +7981,13 @@
         <x:v>408</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>12</x:v>
@@ -8022,7 +7995,7 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>409</x:v>
@@ -8031,13 +8004,13 @@
         <x:v>410</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>12</x:v>
@@ -8045,22 +8018,22 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>12</x:v>
@@ -8068,22 +8041,22 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
         <x:v>12</x:v>
@@ -8091,22 +8064,22 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>12</x:v>
@@ -8114,22 +8087,22 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
         <x:v>12</x:v>
@@ -8137,22 +8110,22 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
         <x:v>12</x:v>
@@ -8160,22 +8133,22 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>12</x:v>
@@ -8183,22 +8156,22 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>12</x:v>
@@ -8206,22 +8179,22 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>12</x:v>
@@ -8238,13 +8211,13 @@
         <x:v>438</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
         <x:v>12</x:v>
@@ -8261,13 +8234,13 @@
         <x:v>440</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
         <x:v>12</x:v>
@@ -8278,16 +8251,16 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
         <x:v>442</x:v>
       </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>443</x:v>
-      </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
         <x:v>203</x:v>
@@ -8301,19 +8274,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
         <x:v>444</x:v>
       </x:c>
-      <x:c r="C38" s="0" t="s">
+      <x:c r="D38" s="0" t="s">
         <x:v>445</x:v>
       </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
         <x:v>12</x:v>
@@ -8330,13 +8303,13 @@
         <x:v>447</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
         <x:v>12</x:v>
@@ -8347,19 +8320,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
         <x:v>12</x:v>
@@ -8370,19 +8343,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
         <x:v>12</x:v>
@@ -8393,19 +8366,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>21</x:v>
@@ -8416,19 +8389,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
         <x:v>12</x:v>
@@ -8439,19 +8412,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>12</x:v>
@@ -8459,22 +8432,22 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
         <x:v>12</x:v>
@@ -8482,22 +8455,22 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>21</x:v>
@@ -8505,22 +8478,22 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>12</x:v>
@@ -8528,22 +8501,22 @@
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
         <x:v>472</x:v>
       </x:c>
-      <x:c r="C48" s="0" t="s">
-        <x:v>473</x:v>
-      </x:c>
-      <x:c r="D48" s="0" t="s">
-        <x:v>474</x:v>
-      </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>12</x:v>
@@ -8551,19 +8524,19 @@
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
         <x:v>311</x:v>
@@ -8574,19 +8547,19 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
         <x:v>311</x:v>
@@ -8597,19 +8570,19 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
         <x:v>311</x:v>
@@ -8620,19 +8593,19 @@
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="0" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
         <x:v>475</x:v>
       </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>485</x:v>
-      </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
         <x:v>311</x:v>
@@ -8686,13 +8659,13 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>15</x:v>
@@ -8709,13 +8682,13 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>15</x:v>
@@ -8732,13 +8705,13 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>146</x:v>
@@ -8755,19 +8728,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>77</x:v>
@@ -8778,13 +8751,13 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>33</x:v>
@@ -8801,13 +8774,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>160</x:v>
@@ -8824,22 +8797,22 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>12</x:v>
@@ -8847,22 +8820,22 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>12</x:v>
@@ -8870,16 +8843,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>34</x:v>
@@ -8893,22 +8866,22 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>504</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>512</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>513</x:v>
-      </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>12</x:v>
@@ -8916,13 +8889,13 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>33</x:v>
@@ -8939,13 +8912,13 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>75</x:v>
@@ -8954,7 +8927,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>12</x:v>
@@ -8962,13 +8935,13 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>317</x:v>
@@ -8985,22 +8958,22 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
         <x:v>12</x:v>
@@ -9008,16 +8981,16 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>38</x:v>
@@ -9031,22 +9004,22 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>12</x:v>
@@ -9054,22 +9027,22 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -9077,13 +9050,13 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>146</x:v>
@@ -9092,7 +9065,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>12</x:v>
@@ -9100,19 +9073,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>350</x:v>
@@ -9123,16 +9096,16 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>28</x:v>
@@ -9146,22 +9119,22 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>12</x:v>
@@ -9169,16 +9142,16 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>33</x:v>
@@ -9192,16 +9165,16 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>33</x:v>
@@ -9215,16 +9188,16 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>55</x:v>
@@ -9238,16 +9211,16 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>29</x:v>
@@ -9261,16 +9234,16 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>55</x:v>
@@ -9284,16 +9257,16 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>55</x:v>
@@ -9307,19 +9280,19 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>47</x:v>
@@ -9330,13 +9303,13 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>103</x:v>
@@ -9353,19 +9326,19 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
         <x:v>11</x:v>
@@ -9376,16 +9349,16 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>28</x:v>
@@ -9399,22 +9372,22 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>12</x:v>
@@ -9422,16 +9395,16 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>33</x:v>
@@ -9445,19 +9418,19 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
         <x:v>77</x:v>
@@ -9468,19 +9441,19 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
         <x:v>11</x:v>
@@ -9491,22 +9464,22 @@
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>12</x:v>
@@ -9514,13 +9487,13 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>15</x:v>
@@ -9537,19 +9510,19 @@
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
         <x:v>580</x:v>
       </x:c>
-      <x:c r="B39" s="0" t="s">
-        <x:v>588</x:v>
-      </x:c>
-      <x:c r="C39" s="0" t="s">
-        <x:v>589</x:v>
-      </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>77</x:v>
@@ -9560,13 +9533,13 @@
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>18</x:v>
@@ -9575,7 +9548,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
         <x:v>21</x:v>
@@ -9583,13 +9556,13 @@
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
         <x:v>28</x:v>
@@ -9606,13 +9579,13 @@
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>28</x:v>
@@ -9629,19 +9602,19 @@
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
         <x:v>77</x:v>
@@ -9652,22 +9625,22 @@
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>12</x:v>
@@ -9675,19 +9648,19 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
         <x:v>11</x:v>
@@ -9698,22 +9671,22 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>12</x:v>
@@ -9721,22 +9694,22 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>12</x:v>
@@ -9744,16 +9717,16 @@
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="0" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
         <x:v>605</x:v>
       </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>613</x:v>
-      </x:c>
-      <x:c r="C48" s="0" t="s">
-        <x:v>614</x:v>
-      </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>29</x:v>
@@ -9767,13 +9740,13 @@
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>18</x:v>
@@ -9782,7 +9755,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
         <x:v>12</x:v>
@@ -9790,13 +9763,13 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
         <x:v>18</x:v>
@@ -9805,7 +9778,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
         <x:v>21</x:v>
@@ -9813,13 +9786,13 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>28</x:v>
@@ -9828,7 +9801,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>12</x:v>
@@ -9836,22 +9809,22 @@
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
         <x:v>12</x:v>
@@ -9859,19 +9832,19 @@
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
         <x:v>60</x:v>
@@ -9882,19 +9855,19 @@
     </x:row>
     <x:row r="54" spans="1:7">
       <x:c r="A54" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
         <x:v>47</x:v>
@@ -9905,19 +9878,19 @@
     </x:row>
     <x:row r="55" spans="1:7">
       <x:c r="A55" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
         <x:v>625</x:v>
-      </x:c>
-      <x:c r="B55" s="0" t="s">
-        <x:v>631</x:v>
-      </x:c>
-      <x:c r="C55" s="0" t="s">
-        <x:v>632</x:v>
-      </x:c>
-      <x:c r="D55" s="0" t="s">
-        <x:v>633</x:v>
-      </x:c>
-      <x:c r="E55" s="0" t="s">
-        <x:v>634</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
         <x:v>57</x:v>
@@ -9928,19 +9901,19 @@
     </x:row>
     <x:row r="56" spans="1:7">
       <x:c r="A56" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
         <x:v>311</x:v>
@@ -9951,19 +9924,19 @@
     </x:row>
     <x:row r="57" spans="1:7">
       <x:c r="A57" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
         <x:v>11</x:v>
@@ -9974,19 +9947,19 @@
     </x:row>
     <x:row r="58" spans="1:7">
       <x:c r="A58" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
         <x:v>311</x:v>
@@ -9997,19 +9970,19 @@
     </x:row>
     <x:row r="59" spans="1:7">
       <x:c r="A59" s="0" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
         <x:v>635</x:v>
       </x:c>
-      <x:c r="B59" s="0" t="s">
-        <x:v>644</x:v>
-      </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
         <x:v>311</x:v>
@@ -10020,22 +9993,22 @@
     </x:row>
     <x:row r="60" spans="1:7">
       <x:c r="A60" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>12</x:v>
@@ -10043,22 +10016,22 @@
     </x:row>
     <x:row r="61" spans="1:7">
       <x:c r="A61" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
         <x:v>12</x:v>
@@ -10066,22 +10039,22 @@
     </x:row>
     <x:row r="62" spans="1:7">
       <x:c r="A62" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
         <x:v>12</x:v>
@@ -10089,19 +10062,19 @@
     </x:row>
     <x:row r="63" spans="1:7">
       <x:c r="A63" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
         <x:v>77</x:v>
@@ -10112,19 +10085,19 @@
     </x:row>
     <x:row r="64" spans="1:7">
       <x:c r="A64" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
         <x:v>11</x:v>
@@ -10135,22 +10108,22 @@
     </x:row>
     <x:row r="65" spans="1:7">
       <x:c r="A65" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>12</x:v>
@@ -10158,13 +10131,13 @@
     </x:row>
     <x:row r="66" spans="1:7">
       <x:c r="A66" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
         <x:v>103</x:v>
@@ -10224,19 +10197,19 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>77</x:v>
@@ -10247,19 +10220,19 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>11</x:v>
@@ -10270,19 +10243,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>660</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>667</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>668</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>669</x:v>
-      </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>11</x:v>
@@ -10293,19 +10266,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>11</x:v>
@@ -10316,19 +10289,19 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>11</x:v>
@@ -10339,13 +10312,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>103</x:v>
@@ -10362,19 +10335,19 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>11</x:v>
@@ -10385,19 +10358,19 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>11</x:v>
@@ -10408,19 +10381,19 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>11</x:v>
@@ -10431,19 +10404,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>11</x:v>
@@ -10454,19 +10427,19 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>11</x:v>
@@ -10477,19 +10450,19 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>11</x:v>
@@ -10500,19 +10473,19 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>11</x:v>
@@ -10523,19 +10496,19 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>11</x:v>
@@ -10546,19 +10519,19 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>11</x:v>
@@ -10569,19 +10542,19 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>11</x:v>
@@ -10592,19 +10565,19 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>11</x:v>
@@ -10615,22 +10588,22 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>12</x:v>
@@ -10638,19 +10611,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>11</x:v>
@@ -10661,19 +10634,19 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>11</x:v>
@@ -10684,19 +10657,19 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>11</x:v>
@@ -10707,19 +10680,19 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
         <x:v>11</x:v>
@@ -10730,19 +10703,19 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>11</x:v>
@@ -10753,16 +10726,16 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>83</x:v>
@@ -10776,22 +10749,22 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>12</x:v>
@@ -10799,22 +10772,22 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>12</x:v>
@@ -10822,13 +10795,13 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>137</x:v>
@@ -10845,19 +10818,19 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>77</x:v>
@@ -10868,16 +10841,16 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>18</x:v>
@@ -10891,13 +10864,13 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>15</x:v>
@@ -10906,7 +10879,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
         <x:v>21</x:v>
@@ -10914,22 +10887,22 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>12</x:v>
@@ -10937,22 +10910,22 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
         <x:v>725</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>734</x:v>
-      </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>21</x:v>
@@ -10960,22 +10933,22 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>21</x:v>
@@ -10983,22 +10956,22 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
         <x:v>21</x:v>
@@ -11006,22 +10979,22 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
         <x:v>21</x:v>
@@ -11029,19 +11002,19 @@
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
         <x:v>148</x:v>
@@ -11095,16 +11068,16 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>18</x:v>
@@ -11118,13 +11091,13 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>240</x:v>
@@ -11141,19 +11114,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>168</x:v>
@@ -11164,16 +11137,16 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>88</x:v>
@@ -11187,16 +11160,16 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>746</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>755</x:v>
-      </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>55</x:v>
@@ -11210,16 +11183,16 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>55</x:v>
@@ -11233,13 +11206,13 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>759</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>760</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>143</x:v>
@@ -11256,13 +11229,13 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>146</x:v>
@@ -11271,7 +11244,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>763</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>21</x:v>
@@ -11279,16 +11252,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>764</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>257</x:v>
@@ -11302,13 +11275,13 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>767</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>41</x:v>
@@ -11317,7 +11290,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>12</x:v>
@@ -11325,13 +11298,13 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>769</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>55</x:v>
@@ -11340,7 +11313,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>12</x:v>
@@ -11348,16 +11321,16 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>773</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>34</x:v>
@@ -11371,16 +11344,16 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>775</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>257</x:v>
@@ -11394,16 +11367,16 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>777</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>778</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>167</x:v>
@@ -11417,13 +11390,13 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>779</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>780</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>160</x:v>
@@ -11440,13 +11413,13 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>782</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>783</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>146</x:v>
@@ -11463,13 +11436,13 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>784</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>785</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>55</x:v>
@@ -11486,16 +11459,16 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>786</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>34</x:v>
@@ -11509,19 +11482,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
         <x:v>781</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>788</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>789</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>790</x:v>
-      </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>311</x:v>
@@ -11532,19 +11505,19 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>783</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
         <x:v>781</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>791</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>792</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>790</x:v>
-      </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>311</x:v>
@@ -11555,19 +11528,19 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>793</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>794</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>795</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>796</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>311</x:v>
@@ -11578,19 +11551,19 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>797</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>798</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>795</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>796</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
         <x:v>311</x:v>
@@ -11601,13 +11574,13 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>800</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>801</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>240</x:v>
@@ -11624,19 +11597,19 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>802</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>803</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>804</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
         <x:v>77</x:v>
@@ -11647,19 +11620,19 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>805</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>806</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>804</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
         <x:v>77</x:v>
@@ -11670,13 +11643,13 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>798</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
         <x:v>799</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>807</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>808</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>18</x:v>
@@ -11693,13 +11666,13 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>809</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>810</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>18</x:v>
@@ -11716,13 +11689,13 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>812</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>18</x:v>
@@ -11739,13 +11712,13 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>813</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>814</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>18</x:v>
@@ -11762,16 +11735,16 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>815</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>816</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>817</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>19</x:v>
@@ -11785,16 +11758,16 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>818</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>819</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>817</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>19</x:v>
@@ -11808,19 +11781,19 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>821</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>822</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
         <x:v>77</x:v>
@@ -11831,19 +11804,19 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>823</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>824</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
         <x:v>77</x:v>
@@ -11854,13 +11827,13 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>825</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>826</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>41</x:v>
@@ -11877,16 +11850,16 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>818</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>819</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
         <x:v>820</x:v>
-      </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>827</x:v>
-      </x:c>
-      <x:c r="C36" s="0" t="s">
-        <x:v>828</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>829</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>127</x:v>
@@ -11900,16 +11873,16 @@
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>830</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>831</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>19</x:v>
@@ -11923,13 +11896,13 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>832</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>833</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>171</x:v>
@@ -11946,19 +11919,19 @@
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="0" t="s">
-        <x:v>834</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>835</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>836</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>11</x:v>
@@ -11969,19 +11942,19 @@
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="0" t="s">
-        <x:v>834</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>838</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>839</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>311</x:v>
@@ -11992,16 +11965,16 @@
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="0" t="s">
-        <x:v>834</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>840</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>841</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>842</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>15</x:v>
@@ -12015,16 +11988,16 @@
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="0" t="s">
-        <x:v>843</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>844</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>845</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>55</x:v>
@@ -12081,13 +12054,13 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>847</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>848</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>180</x:v>
@@ -12104,22 +12077,22 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>849</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>850</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>21</x:v>
@@ -12127,19 +12100,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>851</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>852</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>853</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>168</x:v>
@@ -12150,16 +12123,16 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>837</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>845</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>846</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>854</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>855</x:v>
-      </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>856</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>64</x:v>
@@ -12173,19 +12146,19 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>857</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>858</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>859</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>77</x:v>
@@ -12196,13 +12169,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>860</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>861</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>310</x:v>
@@ -12219,19 +12192,19 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>862</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>863</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>864</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>77</x:v>
@@ -12242,13 +12215,13 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>865</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>866</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>202</x:v>
@@ -12257,7 +12230,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>867</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>12</x:v>
@@ -12265,19 +12238,19 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>868</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>869</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>859</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>30</x:v>
@@ -12288,13 +12261,13 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>870</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>871</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>221</x:v>
@@ -12311,22 +12284,22 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>872</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>873</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>874</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>12</x:v>
@@ -12334,22 +12307,22 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>875</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>876</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>877</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>878</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>12</x:v>
@@ -12357,19 +12330,19 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>879</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>880</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>881</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>77</x:v>
@@ -12380,19 +12353,19 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>882</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>883</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>884</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>885</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>52</x:v>
@@ -12403,19 +12376,19 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>886</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>887</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>881</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>888</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>77</x:v>
@@ -12426,19 +12399,19 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>889</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>890</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>881</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>888</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>77</x:v>
@@ -12449,22 +12422,22 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>891</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>892</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>893</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>796</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -12515,19 +12488,19 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>894</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>895</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>896</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>817</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>77</x:v>
@@ -12538,16 +12511,16 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>894</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>897</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>898</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>899</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>322</x:v>
@@ -12561,16 +12534,16 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>900</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>901</x:v>
+        <x:v>892</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>902</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>15</x:v>
@@ -12584,19 +12557,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>900</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>903</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>904</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>183</x:v>
@@ -12607,16 +12580,16 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>900</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>905</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>906</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>146</x:v>
@@ -12630,13 +12603,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>900</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>907</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>18</x:v>
@@ -12645,7 +12618,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>12</x:v>
@@ -12653,16 +12626,16 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>909</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>910</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>911</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>912</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>160</x:v>
@@ -12676,16 +12649,16 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>909</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>913</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>914</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>912</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>160</x:v>
@@ -12699,16 +12672,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>909</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>915</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>916</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>899</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>322</x:v>
@@ -12722,19 +12695,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>918</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>919</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>258</x:v>
@@ -12745,13 +12718,13 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>920</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>921</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>28</x:v>
@@ -12768,16 +12741,16 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>922</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>923</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>912</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>160</x:v>
@@ -12791,16 +12764,16 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>924</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>925</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>147</x:v>
@@ -12814,16 +12787,16 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
+        <x:v>908</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>917</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>926</x:v>
-      </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>927</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>147</x:v>
@@ -12837,16 +12810,16 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>928</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>929</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>147</x:v>
@@ -12860,13 +12833,13 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>930</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>931</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>34</x:v>
@@ -12883,22 +12856,22 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>932</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>933</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -12906,16 +12879,16 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>934</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>935</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>899</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>322</x:v>
@@ -12929,19 +12902,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>936</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>937</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>938</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>939</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>52</x:v>
@@ -12995,13 +12968,13 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>940</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>941</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>942</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>261</x:v>
@@ -13018,13 +12991,13 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>940</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>943</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>944</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>261</x:v>
@@ -13041,16 +13014,16 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>940</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>945</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>946</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>167</x:v>
@@ -13064,13 +13037,13 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>940</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>947</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>948</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>46</x:v>
@@ -13087,19 +13060,19 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>931</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>940</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>949</x:v>
-      </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>950</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>938</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>939</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>52</x:v>
@@ -13110,19 +13083,19 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>940</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>951</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>939</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>311</x:v>
@@ -13133,13 +13106,13 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>953</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>954</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>955</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>167</x:v>
@@ -13156,19 +13129,19 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>956</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>957</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>958</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>52</x:v>
@@ -13179,19 +13152,19 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>956</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>959</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>960</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>311</x:v>
@@ -13245,19 +13218,19 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>961</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>962</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>963</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>964</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>77</x:v>
@@ -13268,19 +13241,19 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>961</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>965</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>966</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>967</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>77</x:v>
@@ -13291,19 +13264,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>961</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>968</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>969</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>77</x:v>
@@ -13314,13 +13287,13 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>952</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>961</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>970</x:v>
-      </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>971</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>75</x:v>
@@ -13337,13 +13310,13 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>961</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>972</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>973</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>202</x:v>
@@ -13360,19 +13333,19 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>961</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>974</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>975</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>976</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>77</x:v>
@@ -13383,13 +13356,13 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>968</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>978</x:v>
+        <x:v>969</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>979</x:v>
+        <x:v>970</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>51</x:v>
@@ -13398,7 +13371,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>12</x:v>

--- a/sict/contest/jangjunyoung/네이처리퍼블릭 상품유형별 정리.xlsx
+++ b/sict/contest/jangjunyoung/네이처리퍼블릭 상품유형별 정리.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1091">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="1100">
   <x:si>
     <x:t>상품상세유형</x:t>
   </x:si>
@@ -1081,6 +1081,36 @@
     <x:t>바디로션/크림/미스트</x:t>
   </x:si>
   <x:si>
+    <x:t>모멘트 퍼퓸 미스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,400원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼퓸 드 네이처 바디 로션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=12673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[뷰튜버Pick] 허브올로지 화이트진저 릴랙싱 바디 크림(릴렉싱)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순한 베이비 아토 로션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.naturerepublic.com/goods/goods/view?no=13943</x:t>
+  </x:si>
+  <x:si>
+    <x:t>향수/방향/디퓨저</x:t>
+  </x:si>
+  <x:si>
     <x:t>퍼퓸 드 네이처 오드 퍼퓸</x:t>
   </x:si>
   <x:si>
@@ -1090,6 +1120,9 @@
     <x:t>11,900원</x:t>
   </x:si>
   <x:si>
+    <x:t>핸드/풋케어</x:t>
+  </x:si>
+  <x:si>
     <x:t>[1+1] 리얼 스퀴즈 알로에베라 모이스처 핸드 마스크</x:t>
   </x:si>
   <x:si>
@@ -1114,9 +1147,6 @@
     <x:t>4,000원</x:t>
   </x:si>
   <x:si>
-    <x:t>향수/방향/디퓨저</x:t>
-  </x:si>
-  <x:si>
     <x:t>풋 앤 네이처 코코넛 모이스처 풋 크림</x:t>
   </x:si>
   <x:si>
@@ -1126,9 +1156,6 @@
     <x:t>7,000원</x:t>
   </x:si>
   <x:si>
-    <x:t>핸드/풋케어</x:t>
-  </x:si>
-  <x:si>
     <x:t>손이깨끗해 핸드솝</x:t>
   </x:si>
   <x:si>
@@ -1171,6 +1198,9 @@
     <x:t>25%</x:t>
   </x:si>
   <x:si>
+    <x:t>데오드란트/제모</x:t>
+  </x:si>
+  <x:si>
     <x:t>뷰티 툴 바디 면도기</x:t>
   </x:si>
   <x:si>
@@ -1195,6 +1225,9 @@
     <x:t>https://www.naturerepublic.com/goods/goods/view?no=11705</x:t>
   </x:si>
   <x:si>
+    <x:t>바디기타</x:t>
+  </x:si>
+  <x:si>
     <x:t>배쓰 앤 네이처 캐모마일 페미닌 워시</x:t>
   </x:si>
   <x:si>
@@ -1204,7 +1237,7 @@
     <x:t>6,320원</x:t>
   </x:si>
   <x:si>
-    <x:t>데오드란트/제모</x:t>
+    <x:t>샴푸/린스</x:t>
   </x:si>
   <x:si>
     <x:t>[단품/1+1] 트루 허브 사이프러스 타임 샴푸 (탈모증상완화 기능성)</x:t>
@@ -1225,18 +1258,12 @@
     <x:t>https://www.naturerepublic.com/goods/goods/view?no=13563</x:t>
   </x:si>
   <x:si>
-    <x:t>바디기타</x:t>
-  </x:si>
-  <x:si>
     <x:t>[단품/1+1] 트루 허브 만다린 진저 샴푸 (탈모증상완화 기능성)</x:t>
   </x:si>
   <x:si>
     <x:t>https://www.naturerepublic.com/goods/goods/view?no=13564</x:t>
   </x:si>
   <x:si>
-    <x:t>샴푸/린스</x:t>
-  </x:si>
-  <x:si>
     <x:t>아르간 에센셜 딥케어 컨디셔너</x:t>
   </x:si>
   <x:si>
@@ -1306,6 +1333,9 @@
     <x:t>18%</x:t>
   </x:si>
   <x:si>
+    <x:t>헤어팩/에센스</x:t>
+  </x:si>
+  <x:si>
     <x:t>아르간 에센셜 수분 헤어 미스트</x:t>
   </x:si>
   <x:si>
@@ -1333,9 +1363,6 @@
     <x:t>https://www.naturerepublic.com/goods/goods/view?no=12926</x:t>
   </x:si>
   <x:si>
-    <x:t>헤어팩/에센스</x:t>
-  </x:si>
-  <x:si>
     <x:t>헤어 앤 네이처 스테이 볼륨 컬링 에센스</x:t>
   </x:si>
   <x:si>
@@ -1384,6 +1411,9 @@
     <x:t>https://www.naturerepublic.com/goods/goods/view?no=13560</x:t>
   </x:si>
   <x:si>
+    <x:t>스타일링</x:t>
+  </x:si>
+  <x:si>
     <x:t>헤어 앤 네이처 파워 홀딩 헤어 젤</x:t>
   </x:si>
   <x:si>
@@ -1420,7 +1450,7 @@
     <x:t>8,400원</x:t>
   </x:si>
   <x:si>
-    <x:t>스타일링</x:t>
+    <x:t>헤어컬러링</x:t>
   </x:si>
   <x:si>
     <x:t>헤어 앤 네이처 헤어 컬러 크림 (멋내기용) 10N 골드 브라운</x:t>
@@ -1454,9 +1484,6 @@
   </x:si>
   <x:si>
     <x:t>https://www.naturerepublic.com/goods/goods/view?no=10724</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤어컬러링</x:t>
   </x:si>
   <x:si>
     <x:t>블러셔/하이라이터</x:t>
@@ -5926,7 +5953,7 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="G99" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7">
@@ -6250,19 +6277,19 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>971</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>972</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>973</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>974</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>975</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>311</x:v>
@@ -6273,19 +6300,19 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>971</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>976</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>977</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>311</x:v>
@@ -6296,19 +6323,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>971</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>978</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>979</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>311</x:v>
@@ -6319,19 +6346,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>971</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>981</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>982</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>11</x:v>
@@ -6342,19 +6369,19 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>984</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>985</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>986</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>311</x:v>
@@ -6365,19 +6392,19 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
+        <x:v>992</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>996</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>997</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>983</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>987</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>988</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>974</x:v>
-      </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>975</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>311</x:v>
@@ -6388,19 +6415,19 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
+        <x:v>992</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>998</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>999</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>983</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>989</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>990</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>974</x:v>
-      </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>975</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>311</x:v>
@@ -6411,16 +6438,16 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>991</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>992</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>993</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>103</x:v>
@@ -6434,16 +6461,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>994</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>995</x:v>
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>993</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>103</x:v>
@@ -6457,19 +6484,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>996</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>997</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>998</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>311</x:v>
@@ -6480,13 +6507,13 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>999</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>1000</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>103</x:v>
@@ -6503,19 +6530,19 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>1001</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>1002</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>311</x:v>
@@ -6526,19 +6553,19 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>1003</x:v>
+        <x:v>1012</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>1004</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>311</x:v>
@@ -6549,19 +6576,19 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>1005</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>1006</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>311</x:v>
@@ -6572,19 +6599,19 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>1007</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>1008</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>311</x:v>
@@ -6595,19 +6622,19 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>1009</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>1010</x:v>
+        <x:v>1019</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1011</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>311</x:v>
@@ -6618,19 +6645,19 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>1012</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>1013</x:v>
+        <x:v>1022</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>311</x:v>
@@ -6641,19 +6668,19 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>1014</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>1015</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
         <x:v>311</x:v>
@@ -6664,19 +6691,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>1016</x:v>
+        <x:v>1025</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>1017</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1018</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>311</x:v>
@@ -6687,19 +6714,19 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>1019</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>1020</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>311</x:v>
@@ -6710,19 +6737,19 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>1021</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>1022</x:v>
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>11</x:v>
@@ -6733,16 +6760,16 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>1023</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>1024</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>1025</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>29</x:v>
@@ -6756,19 +6783,19 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>1027</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>1028</x:v>
+        <x:v>1037</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>11</x:v>
@@ -6779,19 +6806,19 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>1029</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>1030</x:v>
+        <x:v>1039</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
         <x:v>11</x:v>
@@ -6802,16 +6829,16 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>1031</x:v>
+        <x:v>1040</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>1032</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>993</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>103</x:v>
@@ -6825,19 +6852,19 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>1033</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>1034</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
         <x:v>11</x:v>
@@ -6848,13 +6875,13 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>1035</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>1036</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>103</x:v>
@@ -6871,19 +6898,19 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>1038</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>11</x:v>
@@ -6894,19 +6921,19 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>1039</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>1040</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
         <x:v>11</x:v>
@@ -6917,13 +6944,13 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>1041</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>1042</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>33</x:v>
@@ -6940,19 +6967,19 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>1044</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>1045</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>1046</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
         <x:v>311</x:v>
@@ -6963,19 +6990,19 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>1047</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>1048</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>1046</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
         <x:v>311</x:v>
@@ -6986,16 +7013,16 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>1049</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>1050</x:v>
+        <x:v>1059</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>993</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>103</x:v>
@@ -7009,19 +7036,19 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>1051</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>1052</x:v>
+        <x:v>1061</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
         <x:v>11</x:v>
@@ -7032,13 +7059,13 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>1053</x:v>
+        <x:v>1062</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>1054</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>240</x:v>
@@ -7055,19 +7082,19 @@
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>1055</x:v>
+        <x:v>1064</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>1056</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
         <x:v>311</x:v>
@@ -7078,19 +7105,19 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="0" t="s">
-        <x:v>1057</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>1058</x:v>
+        <x:v>1067</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>1059</x:v>
+        <x:v>1068</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
         <x:v>11</x:v>
@@ -7101,19 +7128,19 @@
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="0" t="s">
-        <x:v>1057</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>1060</x:v>
+        <x:v>1069</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>1061</x:v>
+        <x:v>1070</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>11</x:v>
@@ -7124,19 +7151,19 @@
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="0" t="s">
-        <x:v>1057</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>1062</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>1063</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>11</x:v>
@@ -7147,19 +7174,19 @@
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="0" t="s">
-        <x:v>1057</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>1064</x:v>
+        <x:v>1073</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>1065</x:v>
+        <x:v>1074</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>998</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
         <x:v>311</x:v>
@@ -7170,19 +7197,19 @@
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="0" t="s">
-        <x:v>1066</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>1067</x:v>
+        <x:v>1076</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>1068</x:v>
+        <x:v>1077</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
         <x:v>11</x:v>
@@ -7193,19 +7220,19 @@
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="0" t="s">
-        <x:v>1066</x:v>
+        <x:v>1075</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>1069</x:v>
+        <x:v>1078</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>1070</x:v>
+        <x:v>1079</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
         <x:v>11</x:v>
@@ -7216,22 +7243,22 @@
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>1072</x:v>
+        <x:v>1081</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>1073</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>1074</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>1075</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>1076</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>21</x:v>
@@ -7239,19 +7266,19 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>1077</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>1078</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>1046</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
         <x:v>311</x:v>
@@ -7262,19 +7289,19 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>1079</x:v>
+        <x:v>1088</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>1080</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>1046</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
         <x:v>311</x:v>
@@ -7285,19 +7312,19 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>1081</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>1082</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
         <x:v>311</x:v>
@@ -7308,19 +7335,19 @@
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>1083</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>1084</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
         <x:v>311</x:v>
@@ -7331,19 +7358,19 @@
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>1085</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>1086</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
         <x:v>311</x:v>
@@ -7354,16 +7381,16 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>1087</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>1088</x:v>
+        <x:v>1097</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>993</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>103</x:v>
@@ -7377,19 +7404,19 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>1089</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>1090</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
         <x:v>11</x:v>
@@ -7521,13 +7548,13 @@
         <x:v>353</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>354</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>257</x:v>
-      </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>12</x:v>
@@ -7544,13 +7571,13 @@
         <x:v>356</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>12</x:v>
@@ -7567,13 +7594,13 @@
         <x:v>358</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>12</x:v>
@@ -7584,19 +7611,19 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>360</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>361</x:v>
-      </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>12</x:v>
@@ -7604,19 +7631,19 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>363</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>364</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>365</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>52</x:v>
@@ -7627,19 +7654,19 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>367</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>368</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>369</x:v>
-      </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>11</x:v>
@@ -7650,19 +7677,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>11</x:v>
@@ -7673,22 +7700,22 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>373</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>374</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>12</x:v>
@@ -7696,22 +7723,22 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>375</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="D13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
         <x:v>376</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>12</x:v>
@@ -7719,7 +7746,7 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>377</x:v>
@@ -7728,10 +7755,10 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>11</x:v>
@@ -7742,22 +7769,22 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
         <x:v>12</x:v>
@@ -7765,7 +7792,7 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>382</x:v>
@@ -7774,13 +7801,13 @@
         <x:v>383</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
         <x:v>21</x:v>
@@ -7788,22 +7815,22 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>385</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>386</x:v>
-      </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>12</x:v>
@@ -7811,22 +7838,22 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -7834,22 +7861,22 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
         <x:v>390</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>391</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>392</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>311</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>12</x:v>
@@ -7857,22 +7884,22 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
         <x:v>393</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="D20" s="0" t="s">
         <x:v>394</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>395</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
         <x:v>12</x:v>
@@ -7880,22 +7907,22 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
         <x:v>396</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="D21" s="0" t="s">
         <x:v>397</x:v>
       </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
         <x:v>21</x:v>
@@ -7903,7 +7930,7 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>398</x:v>
@@ -7912,13 +7939,13 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>21</x:v>
@@ -7935,13 +7962,13 @@
         <x:v>402</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>21</x:v>
@@ -7949,22 +7976,22 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
         <x:v>12</x:v>
@@ -7972,7 +7999,7 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>407</x:v>
@@ -7981,13 +8008,13 @@
         <x:v>408</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>12</x:v>
@@ -7995,7 +8022,7 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>409</x:v>
@@ -8004,13 +8031,13 @@
         <x:v>410</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>12</x:v>
@@ -8018,22 +8045,22 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>12</x:v>
@@ -8041,22 +8068,22 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
         <x:v>12</x:v>
@@ -8064,22 +8091,22 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>12</x:v>
@@ -8087,22 +8114,22 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
         <x:v>12</x:v>
@@ -8110,22 +8137,22 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
         <x:v>12</x:v>
@@ -8133,22 +8160,22 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>12</x:v>
@@ -8156,22 +8183,22 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>12</x:v>
@@ -8179,22 +8206,22 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
         <x:v>434</x:v>
       </x:c>
-      <x:c r="C34" s="0" t="s">
+      <x:c r="E34" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
         <x:v>435</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E34" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F34" s="0" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>12</x:v>
@@ -8211,13 +8238,13 @@
         <x:v>438</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
         <x:v>12</x:v>
@@ -8234,13 +8261,13 @@
         <x:v>440</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
         <x:v>12</x:v>
@@ -8251,16 +8278,16 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
         <x:v>203</x:v>
@@ -8274,19 +8301,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
         <x:v>12</x:v>
@@ -8303,13 +8330,13 @@
         <x:v>447</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
         <x:v>12</x:v>
@@ -8320,19 +8347,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
         <x:v>12</x:v>
@@ -8343,19 +8370,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
         <x:v>12</x:v>
@@ -8366,22 +8393,22 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7">
@@ -8389,19 +8416,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
+        <x:v>455</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
         <x:v>459</x:v>
-      </x:c>
-      <x:c r="C43" s="0" t="s">
-        <x:v>460</x:v>
-      </x:c>
-      <x:c r="D43" s="0" t="s">
-        <x:v>461</x:v>
-      </x:c>
-      <x:c r="E43" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
         <x:v>12</x:v>
@@ -8412,19 +8439,19 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>12</x:v>
@@ -8432,22 +8459,22 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
         <x:v>465</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>466</x:v>
-      </x:c>
-      <x:c r="C45" s="0" t="s">
-        <x:v>467</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="s">
-        <x:v>468</x:v>
-      </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
         <x:v>12</x:v>
@@ -8455,22 +8482,22 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>21</x:v>
@@ -8478,22 +8505,22 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>12</x:v>
@@ -8501,22 +8528,22 @@
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>12</x:v>
@@ -8524,19 +8551,19 @@
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
         <x:v>477</x:v>
       </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>466</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="s">
-        <x:v>467</x:v>
-      </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
         <x:v>311</x:v>
@@ -8547,19 +8574,19 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
         <x:v>311</x:v>
@@ -8570,42 +8597,42 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
         <x:v>311</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
         <x:v>311</x:v>
@@ -8659,13 +8686,13 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>15</x:v>
@@ -8682,13 +8709,13 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>15</x:v>
@@ -8705,13 +8732,13 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>146</x:v>
@@ -8728,19 +8755,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>77</x:v>
@@ -8751,13 +8778,13 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>33</x:v>
@@ -8774,13 +8801,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>160</x:v>
@@ -8797,22 +8824,22 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>12</x:v>
@@ -8820,22 +8847,22 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>12</x:v>
@@ -8843,16 +8870,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>34</x:v>
@@ -8866,22 +8893,22 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>12</x:v>
@@ -8889,13 +8916,13 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>33</x:v>
@@ -8912,13 +8939,13 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>75</x:v>
@@ -8927,7 +8954,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>12</x:v>
@@ -8935,13 +8962,13 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>317</x:v>
@@ -8958,22 +8985,22 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
         <x:v>12</x:v>
@@ -8981,16 +9008,16 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>38</x:v>
@@ -9004,22 +9031,22 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>12</x:v>
@@ -9027,22 +9054,22 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -9050,13 +9077,13 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>146</x:v>
@@ -9065,7 +9092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>12</x:v>
@@ -9073,19 +9100,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>350</x:v>
@@ -9096,16 +9123,16 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>28</x:v>
@@ -9119,22 +9146,22 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>12</x:v>
@@ -9142,16 +9169,16 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>33</x:v>
@@ -9165,16 +9192,16 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>33</x:v>
@@ -9188,16 +9215,16 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>55</x:v>
@@ -9211,16 +9238,16 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>29</x:v>
@@ -9234,16 +9261,16 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>55</x:v>
@@ -9257,16 +9284,16 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>55</x:v>
@@ -9280,19 +9307,19 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>47</x:v>
@@ -9303,13 +9330,13 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>103</x:v>
@@ -9326,19 +9353,19 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
         <x:v>11</x:v>
@@ -9349,16 +9376,16 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>28</x:v>
@@ -9372,22 +9399,22 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>12</x:v>
@@ -9395,16 +9422,16 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>33</x:v>
@@ -9418,19 +9445,19 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
         <x:v>77</x:v>
@@ -9441,19 +9468,19 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
         <x:v>11</x:v>
@@ -9464,22 +9491,22 @@
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>12</x:v>
@@ -9487,13 +9514,13 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>15</x:v>
@@ -9510,19 +9537,19 @@
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>77</x:v>
@@ -9533,13 +9560,13 @@
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>18</x:v>
@@ -9548,7 +9575,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
         <x:v>21</x:v>
@@ -9556,13 +9583,13 @@
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
         <x:v>28</x:v>
@@ -9579,13 +9606,13 @@
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>28</x:v>
@@ -9602,19 +9629,19 @@
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
         <x:v>77</x:v>
@@ -9625,22 +9652,22 @@
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>12</x:v>
@@ -9648,19 +9675,19 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
         <x:v>11</x:v>
@@ -9671,22 +9698,22 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>12</x:v>
@@ -9694,22 +9721,22 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>12</x:v>
@@ -9717,16 +9744,16 @@
     </x:row>
     <x:row r="48" spans="1:7">
       <x:c r="A48" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>29</x:v>
@@ -9740,13 +9767,13 @@
     </x:row>
     <x:row r="49" spans="1:7">
       <x:c r="A49" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>18</x:v>
@@ -9755,7 +9782,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
         <x:v>12</x:v>
@@ -9763,13 +9790,13 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
         <x:v>18</x:v>
@@ -9778,7 +9805,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
         <x:v>21</x:v>
@@ -9786,13 +9813,13 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>28</x:v>
@@ -9801,7 +9828,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>12</x:v>
@@ -9809,22 +9836,22 @@
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
         <x:v>12</x:v>
@@ -9832,19 +9859,19 @@
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
         <x:v>60</x:v>
@@ -9855,19 +9882,19 @@
     </x:row>
     <x:row r="54" spans="1:7">
       <x:c r="A54" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
         <x:v>47</x:v>
@@ -9878,19 +9905,19 @@
     </x:row>
     <x:row r="55" spans="1:7">
       <x:c r="A55" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
         <x:v>57</x:v>
@@ -9901,19 +9928,19 @@
     </x:row>
     <x:row r="56" spans="1:7">
       <x:c r="A56" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
         <x:v>311</x:v>
@@ -9924,19 +9951,19 @@
     </x:row>
     <x:row r="57" spans="1:7">
       <x:c r="A57" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
         <x:v>11</x:v>
@@ -9947,19 +9974,19 @@
     </x:row>
     <x:row r="58" spans="1:7">
       <x:c r="A58" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
         <x:v>311</x:v>
@@ -9970,19 +9997,19 @@
     </x:row>
     <x:row r="59" spans="1:7">
       <x:c r="A59" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
         <x:v>311</x:v>
@@ -9993,22 +10020,22 @@
     </x:row>
     <x:row r="60" spans="1:7">
       <x:c r="A60" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="D60" s="0" t="s">
-        <x:v>629</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>12</x:v>
@@ -10016,22 +10043,22 @@
     </x:row>
     <x:row r="61" spans="1:7">
       <x:c r="A61" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
         <x:v>12</x:v>
@@ -10039,22 +10066,22 @@
     </x:row>
     <x:row r="62" spans="1:7">
       <x:c r="A62" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
         <x:v>12</x:v>
@@ -10062,19 +10089,19 @@
     </x:row>
     <x:row r="63" spans="1:7">
       <x:c r="A63" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
         <x:v>77</x:v>
@@ -10085,19 +10112,19 @@
     </x:row>
     <x:row r="64" spans="1:7">
       <x:c r="A64" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
         <x:v>11</x:v>
@@ -10108,22 +10135,22 @@
     </x:row>
     <x:row r="65" spans="1:7">
       <x:c r="A65" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>12</x:v>
@@ -10131,13 +10158,13 @@
     </x:row>
     <x:row r="66" spans="1:7">
       <x:c r="A66" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
         <x:v>103</x:v>
@@ -10197,19 +10224,19 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>77</x:v>
@@ -10220,19 +10247,19 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>11</x:v>
@@ -10243,19 +10270,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>11</x:v>
@@ -10266,19 +10293,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>11</x:v>
@@ -10289,19 +10316,19 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>11</x:v>
@@ -10312,13 +10339,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>103</x:v>
@@ -10335,19 +10362,19 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>11</x:v>
@@ -10358,19 +10385,19 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>11</x:v>
@@ -10381,19 +10408,19 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>11</x:v>
@@ -10404,19 +10431,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>11</x:v>
@@ -10427,19 +10454,19 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>11</x:v>
@@ -10450,19 +10477,19 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>11</x:v>
@@ -10473,19 +10500,19 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>11</x:v>
@@ -10496,19 +10523,19 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>11</x:v>
@@ -10519,19 +10546,19 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>11</x:v>
@@ -10542,19 +10569,19 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>11</x:v>
@@ -10565,19 +10592,19 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>11</x:v>
@@ -10588,22 +10615,22 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>12</x:v>
@@ -10611,19 +10638,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>11</x:v>
@@ -10634,19 +10661,19 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>11</x:v>
@@ -10657,19 +10684,19 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>11</x:v>
@@ -10680,19 +10707,19 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
         <x:v>11</x:v>
@@ -10703,19 +10730,19 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>11</x:v>
@@ -10726,16 +10753,16 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>83</x:v>
@@ -10749,22 +10776,22 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>12</x:v>
@@ -10772,22 +10799,22 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>12</x:v>
@@ -10795,13 +10822,13 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>137</x:v>
@@ -10818,19 +10845,19 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>77</x:v>
@@ -10841,16 +10868,16 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>18</x:v>
@@ -10864,13 +10891,13 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>15</x:v>
@@ -10879,7 +10906,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
         <x:v>21</x:v>
@@ -10887,22 +10914,22 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>12</x:v>
@@ -10910,22 +10937,22 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>21</x:v>
@@ -10933,22 +10960,22 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>21</x:v>
@@ -10956,22 +10983,22 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
         <x:v>21</x:v>
@@ -10979,22 +11006,22 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
         <x:v>21</x:v>
@@ -11002,19 +11029,19 @@
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
         <x:v>148</x:v>
@@ -11068,16 +11095,16 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>18</x:v>
@@ -11091,13 +11118,13 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>240</x:v>
@@ -11114,19 +11141,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>168</x:v>
@@ -11137,16 +11164,16 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>88</x:v>
@@ -11160,16 +11187,16 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>55</x:v>
@@ -11183,16 +11210,16 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>55</x:v>
@@ -11206,13 +11233,13 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>143</x:v>
@@ -11229,13 +11256,13 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>146</x:v>
@@ -11244,7 +11271,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>21</x:v>
@@ -11252,16 +11279,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>257</x:v>
@@ -11275,13 +11302,13 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>759</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>41</x:v>
@@ -11290,7 +11317,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>12</x:v>
@@ -11298,13 +11325,13 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>760</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>55</x:v>
@@ -11313,7 +11340,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>12</x:v>
@@ -11321,16 +11348,16 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>763</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>764</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>34</x:v>
@@ -11344,16 +11371,16 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>767</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>257</x:v>
@@ -11367,16 +11394,16 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>769</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>167</x:v>
@@ -11390,13 +11417,13 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>160</x:v>
@@ -11413,13 +11440,13 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>773</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>146</x:v>
@@ -11436,13 +11463,13 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>775</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>55</x:v>
@@ -11459,16 +11486,16 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>777</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>778</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>34</x:v>
@@ -11482,19 +11509,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>779</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>780</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>311</x:v>
@@ -11505,19 +11532,19 @@
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>782</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>783</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>311</x:v>
@@ -11528,19 +11555,19 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>784</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>785</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>786</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>311</x:v>
@@ -11551,19 +11578,19 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>788</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>789</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>786</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
         <x:v>311</x:v>
@@ -11574,13 +11601,13 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>791</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>792</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>240</x:v>
@@ -11597,19 +11624,19 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>793</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>794</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>795</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
         <x:v>77</x:v>
@@ -11620,19 +11647,19 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>796</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>797</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>795</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
         <x:v>77</x:v>
@@ -11643,13 +11670,13 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>798</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>18</x:v>
@@ -11666,13 +11693,13 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>800</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>801</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>18</x:v>
@@ -11689,13 +11716,13 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>802</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>803</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>18</x:v>
@@ -11712,13 +11739,13 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>804</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>805</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>18</x:v>
@@ -11735,16 +11762,16 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>806</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>807</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>808</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>19</x:v>
@@ -11758,16 +11785,16 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>809</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>810</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>808</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>19</x:v>
@@ -11781,19 +11808,19 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>812</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>813</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
         <x:v>77</x:v>
@@ -11804,19 +11831,19 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>814</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>815</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
         <x:v>77</x:v>
@@ -11827,13 +11854,13 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>816</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>817</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>41</x:v>
@@ -11850,16 +11877,16 @@
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>818</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>819</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>127</x:v>
@@ -11868,21 +11895,21 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>821</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>822</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>19</x:v>
@@ -11896,13 +11923,13 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>823</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>824</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>171</x:v>
@@ -11919,19 +11946,19 @@
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="0" t="s">
-        <x:v>825</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>826</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>827</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>11</x:v>
@@ -11942,19 +11969,19 @@
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="0" t="s">
-        <x:v>825</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>828</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>829</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>830</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>311</x:v>
@@ -11965,16 +11992,16 @@
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="0" t="s">
-        <x:v>825</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>831</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>832</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>833</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>15</x:v>
@@ -11988,16 +12015,16 @@
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="0" t="s">
-        <x:v>834</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>835</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>836</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>55</x:v>
@@ -12054,13 +12081,13 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>838</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>839</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>180</x:v>
@@ -12077,42 +12104,42 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>840</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>841</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>842</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>843</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>844</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>168</x:v>
@@ -12123,16 +12150,16 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>845</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>847</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>64</x:v>
@@ -12146,19 +12173,19 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>848</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>849</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>850</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>77</x:v>
@@ -12169,13 +12196,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>851</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>852</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>310</x:v>
@@ -12192,19 +12219,19 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>853</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>854</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>855</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>77</x:v>
@@ -12215,13 +12242,13 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>856</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>857</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>202</x:v>
@@ -12230,7 +12257,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>858</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>12</x:v>
@@ -12238,19 +12265,19 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
+        <x:v>868</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>869</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
         <x:v>859</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>860</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>514</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>850</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>30</x:v>
@@ -12261,13 +12288,13 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>861</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>862</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>221</x:v>
@@ -12284,22 +12311,22 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>863</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>864</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>865</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>12</x:v>
@@ -12307,22 +12334,22 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>866</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>867</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>868</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>869</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>12</x:v>
@@ -12330,19 +12357,19 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>870</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>871</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>872</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>77</x:v>
@@ -12353,19 +12380,19 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>873</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>874</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>875</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>876</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>52</x:v>
@@ -12376,19 +12403,19 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>877</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>878</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>872</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>879</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>77</x:v>
@@ -12399,19 +12426,19 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>880</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
+        <x:v>890</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
         <x:v>881</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>872</x:v>
-      </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>879</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>77</x:v>
@@ -12422,22 +12449,22 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>882</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>883</x:v>
+        <x:v>892</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>884</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -12488,39 +12515,39 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>885</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>886</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>887</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>808</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>885</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>888</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>889</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>890</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>322</x:v>
@@ -12534,16 +12561,16 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>891</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>892</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>893</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>15</x:v>
@@ -12557,19 +12584,19 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>891</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>894</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>895</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>183</x:v>
@@ -12580,16 +12607,16 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>891</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>896</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>897</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>146</x:v>
@@ -12603,13 +12630,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>891</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>898</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>899</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>18</x:v>
@@ -12618,7 +12645,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>12</x:v>
@@ -12626,16 +12653,16 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>900</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>901</x:v>
+        <x:v>910</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>902</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>903</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>160</x:v>
@@ -12649,16 +12676,16 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>900</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>904</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>905</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>903</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>160</x:v>
@@ -12672,16 +12699,16 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>900</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>906</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>907</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>890</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>322</x:v>
@@ -12695,19 +12722,19 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>909</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>910</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>258</x:v>
@@ -12718,13 +12745,13 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>911</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>912</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>28</x:v>
@@ -12741,16 +12768,16 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>913</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>914</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>903</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>160</x:v>
@@ -12764,16 +12791,16 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>915</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>916</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>147</x:v>
@@ -12787,16 +12814,16 @@
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>918</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>147</x:v>
@@ -12810,16 +12837,16 @@
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>919</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>920</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>147</x:v>
@@ -12833,13 +12860,13 @@
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>921</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>922</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>34</x:v>
@@ -12856,22 +12883,22 @@
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>923</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>924</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>12</x:v>
@@ -12879,16 +12906,16 @@
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>925</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>926</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>890</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>322</x:v>
@@ -12902,19 +12929,19 @@
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>927</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>928</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>929</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>930</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>52</x:v>
@@ -12968,13 +12995,13 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>931</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>932</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>933</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>261</x:v>
@@ -12991,13 +13018,13 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>931</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>934</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>935</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>261</x:v>
@@ -13014,16 +13041,16 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>931</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>936</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>937</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>167</x:v>
@@ -13037,13 +13064,13 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>931</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>938</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>939</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>46</x:v>
@@ -13060,19 +13087,19 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>931</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>940</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>941</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>929</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>930</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>52</x:v>
@@ -13083,19 +13110,19 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>931</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>942</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>943</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>930</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>311</x:v>
@@ -13106,13 +13133,13 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>944</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>945</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>946</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>167</x:v>
@@ -13129,19 +13156,19 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>947</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>948</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>949</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>52</x:v>
@@ -13152,19 +13179,19 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>947</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>950</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>951</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>311</x:v>
@@ -13218,19 +13245,19 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>953</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>954</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>955</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>77</x:v>
@@ -13241,19 +13268,19 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>956</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>957</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>958</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>77</x:v>
@@ -13264,19 +13291,19 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>959</x:v>
+        <x:v>968</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>960</x:v>
+        <x:v>969</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>77</x:v>
@@ -13287,13 +13314,13 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>961</x:v>
+        <x:v>970</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>962</x:v>
+        <x:v>971</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>75</x:v>
@@ -13310,13 +13337,13 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>963</x:v>
+        <x:v>972</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>964</x:v>
+        <x:v>973</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>202</x:v>
@@ -13333,19 +13360,19 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>965</x:v>
+        <x:v>974</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>966</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>967</x:v>
+        <x:v>976</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>77</x:v>
@@ -13356,13 +13383,13 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>968</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>969</x:v>
+        <x:v>978</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>970</x:v>
+        <x:v>979</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>51</x:v>
@@ -13371,7 +13398,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>12</x:v>
